--- a/Python/datasets/Earthquake variable description.xlsx
+++ b/Python/datasets/Earthquake variable description.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D11347-A453-4D4D-93B6-227A624F36E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D11347-A453-4D4D-93B6-227A624F36E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,17 +482,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -508,7 +508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -516,7 +516,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -524,7 +524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -532,7 +532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -540,7 +540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -548,7 +548,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -556,7 +556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -564,7 +564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -572,7 +572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -588,7 +588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -596,7 +596,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -604,7 +604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -612,7 +612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -620,7 +620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -628,7 +628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -636,7 +636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -644,7 +644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -652,7 +652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -660,7 +660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
